--- a/datasets_single/kpca_caz_avi_powder_fix4.xlsx
+++ b/datasets_single/kpca_caz_avi_powder_fix4.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3CF40-7F92-7A42-9C5B-3705C6CF4D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6E32D-4632-DD4C-96C5-8849AEC7D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kpca_caz_avi_powder_fix4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
   <si>
     <t>replicate</t>
   </si>
@@ -41,6 +54,12 @@
   </si>
   <si>
     <t>KPCA</t>
+  </si>
+  <si>
+    <t>ctz_s</t>
+  </si>
+  <si>
+    <t>avi_s</t>
   </si>
 </sst>
 </file>
@@ -888,15 +907,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,8 +934,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -935,8 +960,16 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>E2*42</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>F2*42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -950,13 +983,21 @@
         <v>13.83</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">E3*42</f>
+        <v>39.9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">F3*42</f>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -970,13 +1011,21 @@
         <v>24</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -990,13 +1039,21 @@
         <v>24</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1015,8 +1072,16 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1030,13 +1095,21 @@
         <v>13.6</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1050,13 +1123,21 @@
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1070,13 +1151,21 @@
         <v>24</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1095,8 +1184,16 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1110,13 +1207,21 @@
         <v>10.5</v>
       </c>
       <c r="E11" s="1">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1130,13 +1235,21 @@
         <v>17</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1150,13 +1263,21 @@
         <v>24</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1175,8 +1296,16 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1190,13 +1319,21 @@
         <v>17.329999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1210,13 +1347,21 @@
         <v>24</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1235,8 +1380,16 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1250,13 +1403,21 @@
         <v>20.6</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1270,13 +1431,21 @@
         <v>24</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1295,8 +1464,16 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1310,13 +1487,21 @@
         <v>16.829999999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1330,13 +1515,21 @@
         <v>24</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1355,8 +1548,16 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1370,13 +1571,21 @@
         <v>15.66</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1390,13 +1599,21 @@
         <v>24</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1415,8 +1632,16 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -1430,13 +1655,21 @@
         <v>15.4</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1450,13 +1683,21 @@
         <v>24</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -1475,8 +1716,16 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1490,13 +1739,21 @@
         <v>15.33</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -1510,13 +1767,21 @@
         <v>24</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -1535,8 +1800,16 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -1550,13 +1823,21 @@
         <v>10</v>
       </c>
       <c r="E33" s="1">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -1570,13 +1851,21 @@
         <v>14.75</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>10</v>
       </c>
@@ -1590,13 +1879,21 @@
         <v>24</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>11</v>
       </c>
@@ -1615,8 +1912,16 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -1630,13 +1935,21 @@
         <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -1650,13 +1963,21 @@
         <v>16.170000000000002</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>11</v>
       </c>
@@ -1670,13 +1991,21 @@
         <v>24</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -1695,8 +2024,16 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -1710,13 +2047,21 @@
         <v>10.48</v>
       </c>
       <c r="E41" s="1">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>12</v>
       </c>
@@ -1730,13 +2075,21 @@
         <v>15</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>12</v>
       </c>
@@ -1750,13 +2103,21 @@
         <v>24</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -1775,8 +2136,16 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>13</v>
       </c>
@@ -1790,13 +2159,21 @@
         <v>9.66</v>
       </c>
       <c r="E45" s="1">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F45" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>13</v>
       </c>
@@ -1810,13 +2187,21 @@
         <v>12</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>13</v>
       </c>
@@ -1830,13 +2215,21 @@
         <v>24</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>14</v>
       </c>
@@ -1855,8 +2248,16 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -1870,13 +2271,21 @@
         <v>10.5</v>
       </c>
       <c r="E49" s="1">
-        <v>0.75</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>29.925000000000001</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>14</v>
       </c>
@@ -1890,13 +2299,21 @@
         <v>16.25</v>
       </c>
       <c r="E50" s="1">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -1915,8 +2332,16 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>15</v>
       </c>
@@ -1930,13 +2355,21 @@
         <v>10.58</v>
       </c>
       <c r="E52" s="1">
-        <v>0.75</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="F52" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>29.925000000000001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -1950,13 +2383,21 @@
         <v>13.6</v>
       </c>
       <c r="E53" s="1">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -1975,8 +2416,16 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>16</v>
       </c>
@@ -1990,13 +2439,21 @@
         <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>0.75</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>29.925000000000001</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>16</v>
       </c>
@@ -2010,13 +2467,21 @@
         <v>15.1</v>
       </c>
       <c r="E56" s="1">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>16</v>
       </c>
@@ -2030,13 +2495,21 @@
         <v>24</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>17</v>
       </c>
@@ -2055,8 +2528,16 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>17</v>
       </c>
@@ -2070,13 +2551,21 @@
         <v>16.5</v>
       </c>
       <c r="E59" s="1">
-        <v>1.25</v>
+        <v>1.1875</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>49.875</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>17</v>
       </c>
@@ -2090,13 +2579,21 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E60" s="1">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>17</v>
       </c>
@@ -2110,13 +2607,21 @@
         <v>24</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>18</v>
       </c>
@@ -2135,8 +2640,16 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>18</v>
       </c>
@@ -2150,13 +2663,21 @@
         <v>18</v>
       </c>
       <c r="E63" s="1">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>18</v>
       </c>
@@ -2170,13 +2691,21 @@
         <v>24</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>19</v>
       </c>
@@ -2193,10 +2722,18 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>19</v>
       </c>
@@ -2210,13 +2747,21 @@
         <v>16</v>
       </c>
       <c r="E66" s="1">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -2230,10 +2775,18 @@
         <v>24</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F67" s="1">
-        <v>4</v>
+        <v>3.8</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:H67" si="2">E67*42</f>
+        <v>79.8</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>159.6</v>
       </c>
     </row>
   </sheetData>
